--- a/target/classes/domains.xlsx
+++ b/target/classes/domains.xlsx
@@ -2,9 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="STORM DNS" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="домены-1" sheetId="2" r:id="rId5"/>
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="609">
   <si>
     <t>g32f.top</t>
   </si>
@@ -36,9 +33,6 @@
     <t>g85m.top</t>
   </si>
   <si>
-    <t>в процессе</t>
-  </si>
-  <si>
     <t>gx62k.fun</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>https://gx10pd.website/</t>
   </si>
   <si>
-    <t xml:space="preserve">не работает </t>
-  </si>
-  <si>
     <t>https://gx23ks.top</t>
   </si>
   <si>
@@ -1074,9 +1065,6 @@
     <t>https://g54a.top</t>
   </si>
   <si>
-    <t>долго грузится</t>
-  </si>
-  <si>
     <t>https://g53u.top</t>
   </si>
   <si>
@@ -1428,9 +1416,6 @@
     <t>MONEYXWORLD.TOP</t>
   </si>
   <si>
-    <t>исправлено</t>
-  </si>
-  <si>
     <t>MOSTBETGAMES.TOP</t>
   </si>
   <si>
@@ -1861,22 +1846,12 @@
   </si>
   <si>
     <t>https://AZ53W.TOP</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Ошибка: Сайт заблокирован РКН</t>
-  </si>
-  <si>
-    <t>Сайт не загружается</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <sz val="10.0"/>
@@ -1987,7 +1962,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2010,6 +1985,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -2067,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2145,7 +2126,6 @@
     </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2153,6 +2133,8 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2162,10 +2144,10 @@
     <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2413,7 +2395,6 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2423,37 +2404,25 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>613</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>613</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>613</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>613</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2469,1256 +2438,1009 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.63" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="46.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.13" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="26.0"/>
+    <col customWidth="1" min="2" max="2" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="46.5"/>
+    <col customWidth="1" min="4" max="4" width="27.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>614</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>613</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>614</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>614</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>613</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>613</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>613</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>613</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>614</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>613</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>613</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>613</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>613</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="9"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>613</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>614</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>614</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>614</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>613</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="9"/>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>613</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="9"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>613</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="9"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>613</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>613</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="9"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>613</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="9"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>613</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>614</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>614</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>613</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>613</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>613</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>613</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>615</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>613</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>613</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>613</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="9"/>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>613</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>614</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>614</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>614</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" t="s">
-        <v>613</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>613</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="9"/>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>613</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B43" s="6"/>
       <c r="C43" s="9"/>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>613</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>613</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>613</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="9"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" t="s">
-        <v>613</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="9"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>613</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="9"/>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>613</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="9"/>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="9"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>613</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="9"/>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>614</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" t="s">
-        <v>614</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>613</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="9"/>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" t="s">
-        <v>613</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B56" s="6"/>
       <c r="C56" s="9"/>
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" t="s">
-        <v>613</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="9"/>
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" t="s">
-        <v>613</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B58" s="6"/>
       <c r="C58" s="9"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" t="s">
-        <v>613</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="9"/>
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>614</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" t="s">
-        <v>614</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" t="s">
-        <v>614</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B62" s="6"/>
       <c r="C62" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" t="s">
-        <v>614</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B63" s="6"/>
       <c r="C63" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" t="s">
-        <v>614</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" t="s">
-        <v>613</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="9"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" t="s">
-        <v>613</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B66" s="6"/>
       <c r="C66" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="s">
-        <v>613</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B68" s="6"/>
       <c r="C68" s="9"/>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" t="s">
-        <v>613</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B69" s="6"/>
       <c r="C69" s="9"/>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" t="s">
-        <v>613</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B70" s="6"/>
       <c r="C70" s="9"/>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>613</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B71" s="6"/>
       <c r="C71" s="9"/>
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" t="s">
-        <v>613</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B72" s="6"/>
       <c r="C72" s="9"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
-        <v>613</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B73" s="6"/>
       <c r="C73" s="9"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" t="s">
-        <v>613</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B74" s="6"/>
       <c r="C74" s="9"/>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>613</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B75" s="6"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" t="s">
-        <v>613</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B76" s="6"/>
       <c r="C76" s="9"/>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" t="s">
-        <v>613</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B77" s="6"/>
       <c r="C77" s="9"/>
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" t="s">
-        <v>613</v>
-      </c>
-      <c r="C78" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" t="s">
-        <v>613</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B79" s="6"/>
       <c r="C79" s="9"/>
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" t="s">
-        <v>614</v>
-      </c>
-      <c r="C80" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" t="s">
-        <v>613</v>
-      </c>
-      <c r="C81" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82">
       <c r="A82" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>613</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B82" s="6"/>
       <c r="C82" s="9"/>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
-        <v>613</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B83" s="6"/>
       <c r="C83" s="9"/>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" t="s">
-        <v>613</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B84" s="6"/>
       <c r="C84" s="9"/>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" t="s">
-        <v>613</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B85" s="6"/>
       <c r="C85" s="9"/>
     </row>
     <row r="86">
       <c r="A86" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" t="s">
-        <v>613</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="9"/>
     </row>
     <row r="88">
       <c r="A88" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88" t="s">
-        <v>614</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B88" s="6"/>
       <c r="C88" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>614</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" t="s">
-        <v>613</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B90" s="6"/>
       <c r="C90" s="9"/>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" t="s">
-        <v>613</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B91" s="6"/>
       <c r="C91" s="9"/>
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" t="s">
-        <v>613</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B92" s="6"/>
       <c r="C92" s="9"/>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" t="s">
-        <v>613</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B93" s="6"/>
       <c r="C93" s="9"/>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94" t="s">
-        <v>613</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B94" s="6"/>
       <c r="C94" s="9"/>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95" t="s">
-        <v>613</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B95" s="6"/>
       <c r="C95" s="9"/>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" t="s">
-        <v>614</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B96" s="6"/>
       <c r="C96" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B97" t="s">
-        <v>613</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B97" s="6"/>
       <c r="C97" s="9"/>
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B98" t="s">
-        <v>614</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B98" s="6"/>
       <c r="C98" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99" t="s">
-        <v>613</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B99" s="6"/>
       <c r="C99" s="9"/>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>613</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B100" s="6"/>
       <c r="C100" s="9"/>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" t="s">
-        <v>613</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B101" s="6"/>
       <c r="C101" s="9"/>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="s">
-        <v>613</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B102" s="6"/>
       <c r="C102" s="9"/>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" t="s">
-        <v>613</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B103" s="6"/>
       <c r="C103" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" t="s">
-        <v>613</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B104" s="6"/>
       <c r="C104" s="9"/>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105" t="s">
-        <v>613</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B105" s="6"/>
       <c r="C105" s="9"/>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>613</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B106" s="6"/>
       <c r="C106" s="9"/>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" t="s">
-        <v>613</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B107" s="6"/>
       <c r="C107" s="9"/>
     </row>
     <row r="108">
       <c r="A108" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" t="s">
-        <v>613</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B108" s="6"/>
       <c r="C108" s="9"/>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" t="s">
-        <v>613</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B109" s="6"/>
       <c r="C109" s="9"/>
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" t="s">
-        <v>613</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B110" s="6"/>
       <c r="C110" s="9"/>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" t="s">
-        <v>613</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B111" s="6"/>
       <c r="C111" s="9"/>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" t="s">
-        <v>613</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B112" s="6"/>
       <c r="C112" s="9"/>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" t="s">
-        <v>614</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B113" s="6"/>
       <c r="C113" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" t="s">
-        <v>613</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B114" s="6"/>
       <c r="C114" s="9"/>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" t="s">
-        <v>613</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B115" s="6"/>
       <c r="C115" s="9"/>
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B116" t="s">
-        <v>613</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B116" s="6"/>
       <c r="C116" s="9"/>
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" t="s">
-        <v>613</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B118" s="6"/>
       <c r="C118" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B119" t="s">
-        <v>613</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B119" s="6"/>
       <c r="C119" s="9"/>
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B120" t="s">
-        <v>613</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B120" s="6"/>
       <c r="C120" s="9"/>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B121" t="s">
-        <v>613</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B121" s="6"/>
       <c r="C121" s="9"/>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" t="s">
-        <v>613</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B122" s="6"/>
       <c r="C122" s="9"/>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B123" t="s">
-        <v>613</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B123" s="6"/>
       <c r="C123" s="9"/>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" t="s">
-        <v>613</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B125" s="6"/>
       <c r="C125" s="9"/>
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B126" t="s">
-        <v>613</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B126" s="6"/>
       <c r="C126" s="9"/>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127" t="s">
-        <v>613</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B127" s="6"/>
       <c r="C127" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B128" t="s">
-        <v>613</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B128" s="6"/>
       <c r="C128" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B129" t="s">
-        <v>613</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B129" s="6"/>
       <c r="C129" s="9"/>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" t="s">
-        <v>613</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B130" s="6"/>
       <c r="C130" s="9"/>
     </row>
   </sheetData>
@@ -3862,1524 +3584,1509 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.88" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.38" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="28.5"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="38.75"/>
+    <col customWidth="1" min="4" max="4" width="27.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>614</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>613</v>
+        <v>140</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>613</v>
+        <v>142</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
-        <v>613</v>
+        <v>143</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>613</v>
+        <v>144</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>613</v>
+        <v>145</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>613</v>
+        <v>146</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>613</v>
+        <v>147</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>613</v>
+        <v>148</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" t="s">
-        <v>613</v>
+        <v>149</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>613</v>
+        <v>150</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" t="s">
-        <v>613</v>
+        <v>151</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>613</v>
+        <v>152</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>613</v>
+        <v>153</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>613</v>
+        <v>154</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>613</v>
+        <v>155</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>613</v>
+        <v>156</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s">
-        <v>613</v>
+        <v>157</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" t="s">
-        <v>613</v>
+        <v>158</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" t="s">
-        <v>614</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" t="s">
-        <v>613</v>
+        <v>161</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s">
-        <v>613</v>
+        <v>162</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" t="s">
-        <v>613</v>
+        <v>163</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s">
-        <v>613</v>
+        <v>164</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>613</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>613</v>
+        <v>166</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C26" s="15"/>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" t="s">
-        <v>613</v>
+        <v>167</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>613</v>
+        <v>168</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" t="s">
-        <v>613</v>
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" t="s">
-        <v>613</v>
+        <v>170</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" t="s">
-        <v>613</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" t="s">
-        <v>613</v>
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>613</v>
+        <v>173</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" t="s">
-        <v>613</v>
+        <v>174</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B35" t="s">
-        <v>613</v>
+        <v>175</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C35" s="15"/>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>613</v>
+        <v>176</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C36" s="15"/>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
-        <v>613</v>
+        <v>177</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C37" s="15"/>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B38" t="s">
-        <v>613</v>
+        <v>178</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" t="s">
-        <v>613</v>
+        <v>179</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C39" s="15"/>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" t="s">
-        <v>613</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>613</v>
+        <v>181</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>613</v>
+        <v>182</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" t="s">
-        <v>613</v>
+        <v>183</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" t="s">
-        <v>613</v>
+        <v>184</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" t="s">
-        <v>613</v>
+        <v>185</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" t="s">
-        <v>613</v>
+        <v>186</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" t="s">
-        <v>613</v>
+        <v>187</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" t="s">
-        <v>613</v>
+        <v>188</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" t="s">
-        <v>613</v>
+        <v>189</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" t="s">
-        <v>613</v>
+        <v>190</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" t="s">
-        <v>613</v>
+        <v>191</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C51" s="15"/>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" t="s">
-        <v>613</v>
+        <v>192</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" t="s">
-        <v>613</v>
+        <v>193</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C53" s="15"/>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>613</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" t="s">
-        <v>613</v>
+        <v>196</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C55" s="15"/>
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" t="s">
-        <v>613</v>
+        <v>197</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C56" s="15"/>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" t="s">
-        <v>613</v>
+        <v>198</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C57" s="15"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" t="s">
-        <v>613</v>
+        <v>199</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C58" s="15"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B59" t="s">
-        <v>613</v>
+        <v>200</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C59" s="15"/>
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" t="s">
-        <v>613</v>
+        <v>201</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C60" s="15"/>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" t="s">
-        <v>613</v>
+        <v>202</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C61" s="15"/>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" t="s">
-        <v>613</v>
+        <v>203</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C62" s="15"/>
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" t="s">
-        <v>613</v>
+        <v>204</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C63" s="15"/>
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64" t="s">
-        <v>613</v>
+        <v>205</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C64" s="15"/>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" t="s">
-        <v>613</v>
+        <v>206</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C65" s="15"/>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" t="s">
-        <v>613</v>
+        <v>207</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C66" s="15"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" t="s">
-        <v>613</v>
+        <v>208</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C67" s="15"/>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B68" t="s">
-        <v>613</v>
+        <v>209</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C68" s="15"/>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" t="s">
-        <v>613</v>
+        <v>210</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C69" s="15"/>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" t="s">
-        <v>614</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" t="s">
-        <v>613</v>
+        <v>212</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C71" s="15"/>
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" t="s">
-        <v>613</v>
+        <v>213</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C72" s="15"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" t="s">
-        <v>613</v>
+        <v>214</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C73" s="15"/>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" t="s">
-        <v>613</v>
+        <v>215</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C74" s="15"/>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75" t="s">
-        <v>613</v>
+        <v>216</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C75" s="15"/>
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B76" t="s">
-        <v>613</v>
+        <v>217</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C76" s="15"/>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B77" t="s">
-        <v>613</v>
+        <v>218</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C77" s="15"/>
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B78" t="s">
-        <v>613</v>
+        <v>219</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C78" s="15"/>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" t="s">
-        <v>613</v>
+        <v>220</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C79" s="15"/>
     </row>
     <row r="80">
       <c r="A80" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B80" t="s">
-        <v>613</v>
+        <v>221</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C80" s="15"/>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" t="s">
-        <v>613</v>
+        <v>222</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C81" s="15"/>
     </row>
     <row r="82">
       <c r="A82" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B82" t="s">
-        <v>613</v>
+        <v>223</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C82" s="15"/>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>613</v>
+        <v>224</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C83" s="15"/>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" t="s">
-        <v>613</v>
+        <v>225</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C84" s="15"/>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" t="s">
-        <v>613</v>
+        <v>226</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C85" s="15"/>
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" t="s">
-        <v>613</v>
+        <v>227</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C86" s="15"/>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B87" t="s">
-        <v>613</v>
+        <v>228</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C87" s="15"/>
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B88" t="s">
-        <v>613</v>
+        <v>229</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C88" s="15"/>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" t="s">
-        <v>613</v>
+        <v>230</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C89" s="15"/>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B90" t="s">
-        <v>613</v>
+        <v>231</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C90" s="15"/>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" t="s">
-        <v>613</v>
+        <v>232</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C91" s="15"/>
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B92" t="s">
-        <v>613</v>
+        <v>233</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C92" s="15"/>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B93" t="s">
-        <v>613</v>
+        <v>234</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C93" s="15"/>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B94" t="s">
-        <v>613</v>
+        <v>235</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C94" s="15"/>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B95" t="s">
-        <v>613</v>
+        <v>236</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C95" s="15"/>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B96" t="s">
-        <v>613</v>
+        <v>237</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C96" s="15"/>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B97" t="s">
-        <v>613</v>
+        <v>238</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C97" s="15"/>
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" t="s">
-        <v>613</v>
+        <v>239</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C98" s="15"/>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B99" t="s">
-        <v>613</v>
+        <v>240</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C99" s="15"/>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B100" t="s">
-        <v>613</v>
+        <v>241</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C100" s="15"/>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B101" t="s">
-        <v>613</v>
+        <v>242</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C101" s="15"/>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B102" t="s">
-        <v>613</v>
+        <v>243</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C102" s="9"/>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B103" t="s">
-        <v>614</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B103" s="7"/>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B104" t="s">
-        <v>614</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B104" s="7"/>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105" t="s">
-        <v>613</v>
+        <v>246</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C105" s="9"/>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B106" t="s">
-        <v>613</v>
+        <v>247</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C106" s="9"/>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B107" t="s">
-        <v>613</v>
+        <v>248</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C107" s="9"/>
     </row>
     <row r="108">
       <c r="A108" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B108" t="s">
-        <v>613</v>
+        <v>249</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C108" s="9"/>
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B109" t="s">
-        <v>613</v>
+        <v>250</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C109" s="9"/>
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B110" t="s">
-        <v>613</v>
+        <v>251</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C110" s="9"/>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" t="s">
-        <v>613</v>
+        <v>252</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C111" s="9"/>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B112" t="s">
-        <v>613</v>
+        <v>253</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C112" s="9"/>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B113" t="s">
-        <v>613</v>
+        <v>254</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C113" s="9"/>
     </row>
     <row r="114">
       <c r="A114" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B114" t="s">
-        <v>613</v>
+        <v>255</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C114" s="9"/>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B115" t="s">
-        <v>613</v>
+        <v>256</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C115" s="9"/>
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B116" t="s">
-        <v>613</v>
+        <v>257</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C116" s="9"/>
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B117" t="s">
-        <v>613</v>
+        <v>258</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C117" s="9"/>
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B118" t="s">
-        <v>613</v>
+        <v>259</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C118" s="9"/>
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B119" t="s">
-        <v>613</v>
+        <v>260</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" t="s">
-        <v>613</v>
+        <v>261</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C120" s="9"/>
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B121" t="s">
-        <v>614</v>
+        <v>262</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C121" s="9"/>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B122" t="s">
-        <v>614</v>
-      </c>
-      <c r="C122" s="9"/>
+        <v>263</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B123" t="s">
-        <v>613</v>
+        <v>264</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C123" s="9"/>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" t="s">
-        <v>613</v>
+        <v>265</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C124" s="9"/>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B125" t="s">
-        <v>613</v>
+        <v>266</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C125" s="9"/>
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B126" t="s">
-        <v>613</v>
+        <v>267</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C126" s="9"/>
     </row>
     <row r="127">
       <c r="A127" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B127" t="s">
-        <v>613</v>
+        <v>268</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C127" s="9"/>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B128" t="s">
-        <v>613</v>
+        <v>269</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C128" s="9"/>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B129" t="s">
-        <v>613</v>
+        <v>270</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C129" s="9"/>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B130" t="s">
-        <v>613</v>
+        <v>271</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C130" s="9"/>
     </row>
     <row r="131">
       <c r="A131" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B131" t="s">
-        <v>613</v>
+        <v>272</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C131" s="9"/>
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B132" t="s">
-        <v>613</v>
+        <v>273</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C132" s="9"/>
     </row>
     <row r="133">
       <c r="A133" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B133" t="s">
-        <v>613</v>
+        <v>274</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C133" s="9"/>
     </row>
     <row r="134">
       <c r="A134" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B134" t="s">
-        <v>613</v>
+        <v>275</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C134" s="9"/>
     </row>
     <row r="135">
       <c r="A135" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B135" t="s">
-        <v>613</v>
+        <v>276</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C135" s="9"/>
     </row>
     <row r="136">
       <c r="A136" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B136" t="s">
-        <v>613</v>
+        <v>277</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C136" s="9"/>
     </row>
     <row r="137">
       <c r="A137" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B137" t="s">
-        <v>613</v>
+        <v>278</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C137" s="9"/>
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B138" t="s">
-        <v>613</v>
+        <v>279</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C138" s="9"/>
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139" t="s">
-        <v>613</v>
+        <v>280</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C139" s="9"/>
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B140" t="s">
-        <v>613</v>
+        <v>281</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C140" s="9"/>
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B141" t="s">
-        <v>613</v>
+        <v>282</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C141" s="9"/>
     </row>
     <row r="142">
       <c r="A142" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" t="s">
-        <v>613</v>
+        <v>283</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C142" s="9"/>
     </row>
     <row r="143">
       <c r="A143" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="B143" t="s">
-        <v>613</v>
+        <v>284</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C143" s="9"/>
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B144" t="s">
-        <v>613</v>
+        <v>285</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C144" s="9"/>
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B145" t="s">
-        <v>613</v>
+        <v>286</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C145" s="9"/>
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" t="s">
-        <v>613</v>
+        <v>287</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C146" s="9"/>
     </row>
     <row r="147">
       <c r="A147" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B147" t="s">
-        <v>613</v>
+        <v>288</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C147" s="9"/>
     </row>
     <row r="148">
       <c r="A148" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" t="s">
-        <v>613</v>
+        <v>289</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C148" s="9"/>
     </row>
     <row r="149">
       <c r="A149" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B149" t="s">
-        <v>613</v>
+        <v>290</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C149" s="9"/>
     </row>
     <row r="150">
       <c r="A150" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B150" t="s">
-        <v>613</v>
+        <v>291</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C150" s="9"/>
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B151" t="s">
-        <v>613</v>
+        <v>292</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C151" s="9"/>
     </row>
     <row r="152">
       <c r="A152" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B152" t="s">
-        <v>614</v>
+        <v>293</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C152" s="9"/>
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B153" t="s">
-        <v>613</v>
+        <v>294</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C153" s="9"/>
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="B154" t="s">
-        <v>613</v>
+        <v>295</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C154" s="9"/>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" t="s">
-        <v>613</v>
+        <v>296</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C155" s="9"/>
     </row>
     <row r="156">
       <c r="A156" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B156" t="s">
-        <v>613</v>
+        <v>297</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C156" s="9"/>
     </row>
     <row r="157">
       <c r="A157" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B157" t="s">
-        <v>613</v>
+        <v>298</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C157" s="9"/>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B158" t="s">
-        <v>613</v>
+        <v>299</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C158" s="9"/>
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B159" t="s">
-        <v>614</v>
+        <v>300</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C159" s="9"/>
     </row>
     <row r="160">
       <c r="A160" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B160" t="s">
-        <v>613</v>
+        <v>301</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C160" s="9"/>
     </row>
     <row r="161">
       <c r="A161" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="B161" t="s">
-        <v>613</v>
+        <v>302</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C161" s="9"/>
     </row>
     <row r="162">
       <c r="A162" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B162" t="s">
-        <v>613</v>
+        <v>303</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C162" s="9"/>
     </row>
     <row r="163">
       <c r="A163" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B163" t="s">
-        <v>613</v>
+        <v>304</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C163" s="9"/>
     </row>
     <row r="164">
       <c r="A164" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B164" t="s">
-        <v>613</v>
+        <v>305</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C164" s="9"/>
     </row>
     <row r="165">
       <c r="A165" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B165" t="s">
-        <v>613</v>
+        <v>306</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C165" s="9"/>
     </row>
     <row r="166">
       <c r="A166" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B166" t="s">
-        <v>613</v>
+        <v>307</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="18"/>
@@ -5387,10 +5094,10 @@
     </row>
     <row r="167">
       <c r="A167" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B167" t="s">
-        <v>613</v>
+        <v>308</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C167" s="19"/>
       <c r="D167" s="18"/>
@@ -5398,10 +5105,10 @@
     </row>
     <row r="168">
       <c r="A168" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="B168" t="s">
-        <v>613</v>
+        <v>309</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C168" s="19"/>
       <c r="D168" s="18"/>
@@ -5409,10 +5116,10 @@
     </row>
     <row r="169">
       <c r="A169" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B169" t="s">
-        <v>613</v>
+        <v>310</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C169" s="19"/>
       <c r="D169" s="18"/>
@@ -5420,10 +5127,10 @@
     </row>
     <row r="170">
       <c r="A170" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B170" t="s">
-        <v>613</v>
+        <v>311</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C170" s="19"/>
       <c r="D170" s="18"/>
@@ -5431,21 +5138,21 @@
     </row>
     <row r="171">
       <c r="A171" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B171" t="s">
-        <v>614</v>
-      </c>
-      <c r="C171" s="19"/>
+        <v>312</v>
+      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
     </row>
     <row r="172">
       <c r="A172" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B172" t="s">
-        <v>613</v>
+        <v>313</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="18"/>
@@ -5453,10 +5160,10 @@
     </row>
     <row r="173">
       <c r="A173" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B173" t="s">
-        <v>613</v>
+        <v>314</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="18"/>
@@ -5464,10 +5171,10 @@
     </row>
     <row r="174">
       <c r="A174" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B174" t="s">
-        <v>613</v>
+        <v>315</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C174" s="19"/>
       <c r="D174" s="18"/>
@@ -5475,10 +5182,10 @@
     </row>
     <row r="175">
       <c r="A175" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B175" t="s">
-        <v>613</v>
+        <v>316</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="18"/>
@@ -5486,10 +5193,10 @@
     </row>
     <row r="176">
       <c r="A176" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B176" t="s">
-        <v>613</v>
+        <v>317</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="18"/>
@@ -5497,10 +5204,10 @@
     </row>
     <row r="177">
       <c r="A177" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B177" t="s">
-        <v>613</v>
+        <v>318</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C177" s="19"/>
       <c r="D177" s="18"/>
@@ -5508,10 +5215,10 @@
     </row>
     <row r="178">
       <c r="A178" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="B178" t="s">
-        <v>613</v>
+        <v>319</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" s="18"/>
@@ -5519,10 +5226,10 @@
     </row>
     <row r="179">
       <c r="A179" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B179" t="s">
-        <v>613</v>
+        <v>320</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C179" s="19"/>
       <c r="D179" s="18"/>
@@ -5530,10 +5237,10 @@
     </row>
     <row r="180">
       <c r="A180" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B180" t="s">
-        <v>613</v>
+        <v>321</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="18"/>
@@ -5541,10 +5248,10 @@
     </row>
     <row r="181">
       <c r="A181" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B181" t="s">
-        <v>613</v>
+        <v>322</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C181" s="19"/>
       <c r="D181" s="18"/>
@@ -5552,10 +5259,10 @@
     </row>
     <row r="182">
       <c r="A182" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B182" t="s">
-        <v>613</v>
+        <v>323</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C182" s="19"/>
       <c r="D182" s="18"/>
@@ -5563,10 +5270,10 @@
     </row>
     <row r="183">
       <c r="A183" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="B183" t="s">
-        <v>613</v>
+        <v>324</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="18"/>
@@ -5574,10 +5281,10 @@
     </row>
     <row r="184">
       <c r="A184" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B184" t="s">
-        <v>613</v>
+        <v>325</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="18"/>
@@ -5585,10 +5292,10 @@
     </row>
     <row r="185">
       <c r="A185" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B185" t="s">
-        <v>613</v>
+        <v>326</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C185" s="19"/>
       <c r="D185" s="18"/>
@@ -5596,10 +5303,10 @@
     </row>
     <row r="186">
       <c r="A186" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B186" t="s">
-        <v>613</v>
+        <v>327</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="18"/>
@@ -5607,10 +5314,10 @@
     </row>
     <row r="187">
       <c r="A187" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="B187" t="s">
-        <v>613</v>
+        <v>328</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C187" s="19"/>
       <c r="D187" s="18"/>
@@ -5618,10 +5325,10 @@
     </row>
     <row r="188">
       <c r="A188" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B188" t="s">
-        <v>613</v>
+        <v>329</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="18"/>
@@ -5629,10 +5336,10 @@
     </row>
     <row r="189">
       <c r="A189" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="B189" t="s">
-        <v>614</v>
+        <v>330</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C189" s="19"/>
       <c r="D189" s="18"/>
@@ -5640,22 +5347,20 @@
     </row>
     <row r="190">
       <c r="A190" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B190" t="s">
-        <v>614</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B190" s="7"/>
       <c r="C190" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" s="18"/>
     </row>
     <row r="191">
       <c r="A191" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B191" t="s">
-        <v>613</v>
+        <v>332</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C191" s="19"/>
       <c r="D191" s="18"/>
@@ -5663,10 +5368,10 @@
     </row>
     <row r="192">
       <c r="A192" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="B192" t="s">
-        <v>613</v>
+        <v>333</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C192" s="19"/>
       <c r="D192" s="18"/>
@@ -5674,10 +5379,10 @@
     </row>
     <row r="193">
       <c r="A193" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B193" t="s">
-        <v>613</v>
+        <v>334</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C193" s="19"/>
       <c r="D193" s="18"/>
@@ -5685,10 +5390,10 @@
     </row>
     <row r="194">
       <c r="A194" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B194" t="s">
-        <v>613</v>
+        <v>335</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C194" s="19"/>
       <c r="D194" s="18"/>
@@ -5696,10 +5401,10 @@
     </row>
     <row r="195">
       <c r="A195" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B195" t="s">
-        <v>613</v>
+        <v>336</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="18"/>
@@ -5707,21 +5412,21 @@
     </row>
     <row r="196">
       <c r="A196" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B196" t="s">
-        <v>614</v>
-      </c>
-      <c r="C196" s="19"/>
+        <v>337</v>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
     </row>
     <row r="197">
       <c r="A197" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B197" t="s">
-        <v>613</v>
+        <v>338</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C197" s="19"/>
       <c r="D197" s="18"/>
@@ -5729,33 +5434,31 @@
     </row>
     <row r="198">
       <c r="A198" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B198" t="s">
-        <v>614</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B198" s="7"/>
       <c r="C198" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E198" s="18"/>
     </row>
     <row r="199">
       <c r="A199" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="B199" t="s">
-        <v>614</v>
-      </c>
-      <c r="C199" s="19"/>
+        <v>340</v>
+      </c>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D199" s="18"/>
       <c r="E199" s="18"/>
     </row>
     <row r="200">
       <c r="A200" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B200" t="s">
-        <v>613</v>
+        <v>341</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C200" s="19"/>
       <c r="D200" s="18"/>
@@ -5763,10 +5466,10 @@
     </row>
     <row r="201">
       <c r="A201" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="B201" t="s">
-        <v>613</v>
+        <v>342</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C201" s="19"/>
       <c r="D201" s="18"/>
@@ -5774,10 +5477,10 @@
     </row>
     <row r="202">
       <c r="A202" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B202" t="s">
-        <v>613</v>
+        <v>343</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="18"/>
@@ -5785,10 +5488,10 @@
     </row>
     <row r="203">
       <c r="A203" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B203" t="s">
-        <v>613</v>
+        <v>344</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C203" s="19"/>
       <c r="D203" s="18"/>
@@ -5796,10 +5499,10 @@
     </row>
     <row r="204">
       <c r="A204" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="B204" t="s">
-        <v>613</v>
+        <v>345</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C204" s="19"/>
       <c r="D204" s="18"/>
@@ -5807,10 +5510,10 @@
     </row>
     <row r="205">
       <c r="A205" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B205" t="s">
-        <v>613</v>
+        <v>346</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C205" s="19"/>
       <c r="D205" s="18"/>
@@ -5818,34 +5521,30 @@
     </row>
     <row r="206">
       <c r="A206" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B206" t="s">
-        <v>613</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>350</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206" s="20"/>
       <c r="E206" s="18"/>
     </row>
     <row r="207">
       <c r="A207" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B207" t="s">
-        <v>614</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B207" s="7"/>
       <c r="C207" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207" s="18"/>
     </row>
     <row r="208">
       <c r="A208" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B208" t="s">
-        <v>613</v>
+        <v>349</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="18"/>
@@ -5853,10 +5552,10 @@
     </row>
     <row r="209">
       <c r="A209" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B209" t="s">
-        <v>613</v>
+        <v>350</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C209" s="19"/>
       <c r="D209" s="18"/>
@@ -5864,10 +5563,10 @@
     </row>
     <row r="210">
       <c r="A210" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B210" t="s">
-        <v>614</v>
+        <v>351</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C210" s="19"/>
       <c r="D210" s="18"/>
@@ -5875,10 +5574,10 @@
     </row>
     <row r="211">
       <c r="A211" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B211" t="s">
-        <v>613</v>
+        <v>352</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C211" s="19"/>
       <c r="D211" s="18"/>
@@ -5886,22 +5585,20 @@
     </row>
     <row r="212">
       <c r="A212" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B212" t="s">
-        <v>614</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B212" s="7"/>
       <c r="C212" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E212" s="18"/>
     </row>
     <row r="213">
       <c r="A213" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B213" t="s">
-        <v>613</v>
+        <v>354</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C213" s="21"/>
       <c r="D213" s="20"/>
@@ -5909,10 +5606,10 @@
     </row>
     <row r="214">
       <c r="A214" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B214" t="s">
-        <v>613</v>
+        <v>355</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C214" s="21"/>
       <c r="D214" s="20"/>
@@ -5920,10 +5617,10 @@
     </row>
     <row r="215">
       <c r="A215" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B215" t="s">
-        <v>613</v>
+        <v>356</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C215" s="19"/>
       <c r="D215" s="18"/>
@@ -5931,10 +5628,10 @@
     </row>
     <row r="216">
       <c r="A216" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B216" t="s">
-        <v>613</v>
+        <v>357</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C216" s="21"/>
       <c r="D216" s="20"/>
@@ -5942,10 +5639,10 @@
     </row>
     <row r="217">
       <c r="A217" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B217" t="s">
-        <v>613</v>
+        <v>358</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="20"/>
@@ -5953,10 +5650,10 @@
     </row>
     <row r="218">
       <c r="A218" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B218" t="s">
-        <v>613</v>
+        <v>359</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C218" s="21"/>
       <c r="D218" s="20"/>
@@ -5964,10 +5661,10 @@
     </row>
     <row r="219">
       <c r="A219" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B219" t="s">
-        <v>613</v>
+        <v>360</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C219" s="19"/>
       <c r="D219" s="18"/>
@@ -5975,43 +5672,43 @@
     </row>
     <row r="220">
       <c r="A220" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B220" t="s">
-        <v>614</v>
-      </c>
-      <c r="C220" s="21"/>
+        <v>361</v>
+      </c>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D220" s="1"/>
       <c r="E220" s="18"/>
     </row>
     <row r="221">
       <c r="A221" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B221" t="s">
-        <v>614</v>
-      </c>
-      <c r="C221" s="19"/>
+        <v>362</v>
+      </c>
+      <c r="B221" s="7"/>
+      <c r="C221" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D221" s="1"/>
       <c r="E221" s="18"/>
     </row>
     <row r="222">
       <c r="A222" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B222" t="s">
-        <v>614</v>
-      </c>
-      <c r="C222" s="21"/>
+        <v>363</v>
+      </c>
+      <c r="B222" s="7"/>
+      <c r="C222" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D222" s="1"/>
       <c r="E222" s="18"/>
     </row>
     <row r="223">
       <c r="A223" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="B223" t="s">
-        <v>613</v>
+        <v>364</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C223" s="21"/>
       <c r="D223" s="20"/>
@@ -6019,10 +5716,10 @@
     </row>
     <row r="224">
       <c r="A224" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B224" t="s">
-        <v>613</v>
+        <v>365</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C224" s="19"/>
       <c r="D224" s="18"/>
@@ -6030,10 +5727,10 @@
     </row>
     <row r="225">
       <c r="A225" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B225" t="s">
-        <v>613</v>
+        <v>366</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C225" s="19"/>
       <c r="D225" s="18"/>
@@ -6041,10 +5738,10 @@
     </row>
     <row r="226">
       <c r="A226" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B226" t="s">
-        <v>613</v>
+        <v>367</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C226" s="19"/>
       <c r="D226" s="18"/>
@@ -6052,10 +5749,10 @@
     </row>
     <row r="227">
       <c r="A227" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B227" t="s">
-        <v>613</v>
+        <v>368</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C227" s="19"/>
       <c r="D227" s="18"/>
@@ -6063,10 +5760,10 @@
     </row>
     <row r="228">
       <c r="A228" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="B228" t="s">
-        <v>613</v>
+        <v>369</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C228" s="19"/>
       <c r="D228" s="18"/>
@@ -6074,10 +5771,10 @@
     </row>
     <row r="229">
       <c r="A229" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B229" t="s">
-        <v>613</v>
+        <v>370</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C229" s="19"/>
       <c r="D229" s="18"/>
@@ -6085,20 +5782,20 @@
     </row>
     <row r="230">
       <c r="A230" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="B230" t="s">
-        <v>614</v>
-      </c>
-      <c r="C230" s="19"/>
+        <v>371</v>
+      </c>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E230" s="18"/>
     </row>
     <row r="231">
       <c r="A231" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B231" t="s">
-        <v>613</v>
+        <v>372</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C231" s="19"/>
       <c r="D231" s="18"/>
@@ -6106,10 +5803,10 @@
     </row>
     <row r="232">
       <c r="A232" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B232" t="s">
-        <v>613</v>
+        <v>373</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C232" s="19"/>
       <c r="D232" s="18"/>
@@ -6117,10 +5814,10 @@
     </row>
     <row r="233">
       <c r="A233" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B233" t="s">
-        <v>613</v>
+        <v>374</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C233" s="19"/>
       <c r="D233" s="18"/>
@@ -6128,10 +5825,10 @@
     </row>
     <row r="234">
       <c r="A234" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="B234" t="s">
-        <v>613</v>
+        <v>375</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C234" s="19"/>
       <c r="D234" s="18"/>
@@ -6139,20 +5836,20 @@
     </row>
     <row r="235">
       <c r="A235" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B235" t="s">
-        <v>614</v>
-      </c>
-      <c r="C235" s="19"/>
+        <v>376</v>
+      </c>
+      <c r="B235" s="7"/>
+      <c r="C235" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E235" s="18"/>
     </row>
     <row r="236">
       <c r="A236" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B236" t="s">
-        <v>613</v>
+        <v>377</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C236" s="19"/>
       <c r="D236" s="18"/>
@@ -6160,10 +5857,10 @@
     </row>
     <row r="237">
       <c r="A237" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="B237" t="s">
-        <v>613</v>
+        <v>378</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C237" s="19"/>
       <c r="D237" s="18"/>
@@ -6171,10 +5868,10 @@
     </row>
     <row r="238">
       <c r="A238" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="B238" t="s">
-        <v>613</v>
+        <v>379</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C238" s="19"/>
       <c r="D238" s="18"/>
@@ -6182,10 +5879,10 @@
     </row>
     <row r="239">
       <c r="A239" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B239" t="s">
-        <v>613</v>
+        <v>380</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C239" s="19"/>
       <c r="D239" s="18"/>
@@ -6193,10 +5890,10 @@
     </row>
     <row r="240">
       <c r="A240" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B240" t="s">
-        <v>613</v>
+        <v>381</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C240" s="19"/>
       <c r="D240" s="18"/>
@@ -6204,10 +5901,10 @@
     </row>
     <row r="241">
       <c r="A241" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B241" t="s">
-        <v>613</v>
+        <v>382</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C241" s="19"/>
       <c r="D241" s="18"/>
@@ -6215,10 +5912,10 @@
     </row>
     <row r="242">
       <c r="A242" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="B242" t="s">
-        <v>613</v>
+        <v>383</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C242" s="19"/>
       <c r="D242" s="18"/>
@@ -6226,10 +5923,10 @@
     </row>
     <row r="243">
       <c r="A243" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B243" t="s">
-        <v>613</v>
+        <v>384</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C243" s="19"/>
       <c r="D243" s="18"/>
@@ -6237,10 +5934,10 @@
     </row>
     <row r="244">
       <c r="A244" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B244" t="s">
-        <v>613</v>
+        <v>385</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C244" s="19"/>
       <c r="D244" s="18"/>
@@ -6248,10 +5945,10 @@
     </row>
     <row r="245">
       <c r="A245" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B245" t="s">
-        <v>613</v>
+        <v>386</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C245" s="19"/>
       <c r="D245" s="18"/>
@@ -6259,10 +5956,10 @@
     </row>
     <row r="246">
       <c r="A246" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="B246" t="s">
-        <v>613</v>
+        <v>387</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C246" s="19"/>
       <c r="D246" s="18"/>
@@ -6270,10 +5967,10 @@
     </row>
     <row r="247">
       <c r="A247" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="B247" t="s">
-        <v>614</v>
+        <v>388</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C247" s="19"/>
       <c r="D247" s="18"/>
@@ -6281,225 +5978,225 @@
     </row>
     <row r="248">
       <c r="A248" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="B248" t="s">
-        <v>613</v>
+        <v>389</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C248" s="22"/>
     </row>
     <row r="249">
       <c r="A249" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="B249" t="s">
-        <v>613</v>
+        <v>390</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C249" s="22"/>
     </row>
     <row r="250">
       <c r="A250" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="B250" t="s">
-        <v>613</v>
+        <v>391</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C250" s="22"/>
     </row>
     <row r="251">
       <c r="A251" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B251" t="s">
-        <v>613</v>
+        <v>392</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C251" s="22"/>
     </row>
     <row r="252">
       <c r="A252" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B252" t="s">
-        <v>613</v>
+        <v>393</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C252" s="22"/>
     </row>
     <row r="253">
       <c r="A253" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B253" t="s">
-        <v>613</v>
+        <v>394</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C253" s="9"/>
     </row>
     <row r="254">
       <c r="A254" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B254" t="s">
-        <v>613</v>
+        <v>395</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C254" s="9"/>
     </row>
     <row r="255">
       <c r="A255" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B255" t="s">
-        <v>613</v>
+        <v>396</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C255" s="9"/>
     </row>
     <row r="256">
       <c r="A256" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B256" t="s">
-        <v>613</v>
+        <v>397</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C256" s="9"/>
     </row>
     <row r="257">
       <c r="A257" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B257" t="s">
-        <v>613</v>
+        <v>398</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C257" s="9"/>
     </row>
     <row r="258">
       <c r="A258" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B258" t="s">
-        <v>613</v>
+        <v>399</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C258" s="9"/>
     </row>
     <row r="259">
       <c r="A259" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B259" t="s">
-        <v>613</v>
+        <v>400</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C259" s="9"/>
     </row>
     <row r="260">
       <c r="A260" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B260" t="s">
-        <v>613</v>
+        <v>401</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C260" s="9"/>
     </row>
     <row r="261">
       <c r="A261" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B261" t="s">
-        <v>613</v>
+        <v>402</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C261" s="9"/>
     </row>
     <row r="262">
       <c r="A262" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B262" t="s">
-        <v>613</v>
+        <v>403</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C262" s="9"/>
     </row>
     <row r="263">
       <c r="A263" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="B263" t="s">
-        <v>613</v>
+        <v>404</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C263" s="9"/>
     </row>
     <row r="264">
       <c r="A264" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B264" t="s">
-        <v>613</v>
+        <v>405</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C264" s="9"/>
     </row>
     <row r="265">
       <c r="A265" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B265" t="s">
-        <v>613</v>
+        <v>406</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B266" t="s">
-        <v>613</v>
+        <v>407</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C266" s="9"/>
     </row>
     <row r="267">
       <c r="A267" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B267" t="s">
-        <v>613</v>
+        <v>408</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C267" s="9"/>
     </row>
     <row r="268">
       <c r="A268" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B268" t="s">
-        <v>613</v>
+        <v>409</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C268" s="9"/>
     </row>
     <row r="269">
       <c r="A269" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B269" t="s">
-        <v>613</v>
+        <v>410</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C269" s="9"/>
     </row>
     <row r="270">
       <c r="A270" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B270" t="s">
-        <v>613</v>
+        <v>411</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C270" s="9"/>
     </row>
     <row r="271">
       <c r="A271" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B271" t="s">
-        <v>613</v>
+        <v>412</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C271" s="9"/>
     </row>
     <row r="272">
       <c r="A272" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B272" t="s">
-        <v>613</v>
+        <v>413</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C272" s="9"/>
     </row>
@@ -6792,358 +6489,252 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.63" collapsed="true" outlineLevel="1"/>
-    <col min="2" max="2" customWidth="true" width="18.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="28.63" outlineLevel="1"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="31.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>614</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="B2" t="s">
-        <v>613</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" t="s">
-        <v>614</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" t="s">
-        <v>613</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>614</v>
+        <v>353</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" t="s">
-        <v>613</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="B7" t="s">
-        <v>613</v>
+        <v>341</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="24" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="B9" t="s">
-        <v>614</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" t="s">
-        <v>614</v>
+        <v>417</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" t="s">
-        <v>614</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="B12" t="s">
-        <v>613</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" t="s">
-        <v>613</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="B14" t="s">
-        <v>614</v>
+        <v>420</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" t="s">
-        <v>613</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="B16" t="s">
-        <v>614</v>
+        <v>422</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17" t="s">
-        <v>614</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="B18" t="s">
-        <v>613</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="B19" t="s">
-        <v>613</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" t="s">
-        <v>614</v>
+        <v>426</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="B21" t="s">
-        <v>614</v>
+        <v>427</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>614</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" t="s">
-        <v>614</v>
+        <v>428</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s">
-        <v>613</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="B25" t="s">
-        <v>613</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="B26" t="s">
-        <v>613</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="B27" t="s">
-        <v>614</v>
+        <v>431</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="B28" t="s">
-        <v>613</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="B29" t="s">
-        <v>613</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="B30" t="s">
-        <v>614</v>
+        <v>434</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="B31" t="s">
-        <v>614</v>
+        <v>435</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B32" t="s">
-        <v>614</v>
+        <v>436</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>613</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>613</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="B35" t="s">
-        <v>613</v>
+        <v>437</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -7197,1426 +6788,1130 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.13" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.38" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="27.13"/>
+    <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col customWidth="1" min="4" max="4" width="16.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>614</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" t="s">
-        <v>613</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B2" s="27"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="B3" t="s">
-        <v>613</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B3" s="27"/>
       <c r="C3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>613</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="B5" t="s">
-        <v>613</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" t="s">
-        <v>613</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="B7" t="s">
-        <v>613</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="B8" t="s">
-        <v>613</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B8" s="27"/>
       <c r="C8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="B9" t="s">
-        <v>613</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B9" s="27"/>
       <c r="C9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="B10" t="s">
-        <v>613</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B10" s="27"/>
       <c r="C10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="B11" t="s">
-        <v>613</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B11" s="27"/>
       <c r="C11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="B12" t="s">
-        <v>613</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B12" s="27"/>
       <c r="C12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="B13" t="s">
-        <v>613</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B13" s="27"/>
       <c r="C13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="B14" t="s">
-        <v>613</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="B14" s="27"/>
       <c r="C14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>455</v>
-      </c>
-      <c r="B15" t="s">
-        <v>613</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="B15" s="27"/>
       <c r="C15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="B16" t="s">
-        <v>613</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="B17" t="s">
-        <v>613</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B17" s="27"/>
       <c r="C17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="B18" t="s">
-        <v>613</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="B18" s="27"/>
       <c r="C18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="B19" t="s">
-        <v>613</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B19" s="27"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="B20" t="s">
-        <v>613</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="B20" s="27"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B21" t="s">
-        <v>613</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B21" s="27"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="B22" t="s">
-        <v>613</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B22" s="27"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B23" t="s">
-        <v>613</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="B24" t="s">
-        <v>613</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B24" s="27"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="B25" t="s">
-        <v>613</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B25" s="27"/>
       <c r="C25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="B26" t="s">
-        <v>613</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B26" s="27"/>
       <c r="C26" s="15"/>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B27" t="s">
-        <v>613</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="1" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="B28" t="s">
-        <v>613</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="B29" t="s">
-        <v>613</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B29" s="27"/>
       <c r="C29" s="15"/>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="B30" t="s">
-        <v>613</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B30" s="27"/>
       <c r="C30" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="B31" t="s">
-        <v>613</v>
-      </c>
-      <c r="C31" s="30"/>
+        <v>468</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B32" t="s">
-        <v>613</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="B32" s="27"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="B33" t="s">
-        <v>613</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B33" s="27"/>
       <c r="C33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="B34" t="s">
-        <v>613</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B34" s="27"/>
       <c r="C34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="B35" t="s">
-        <v>613</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="B35" s="27"/>
       <c r="C35" s="15"/>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B36" t="s">
-        <v>614</v>
-      </c>
-      <c r="C36" s="15"/>
+        <v>474</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="26" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="B37" t="s">
-        <v>613</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B37" s="27"/>
       <c r="C37" s="15"/>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B38" t="s">
-        <v>613</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B38" s="27"/>
       <c r="C38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="B39" t="s">
-        <v>613</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="B39" s="27"/>
       <c r="C39" s="15"/>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="B40" t="s">
-        <v>613</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="B40" s="27"/>
       <c r="C40" s="15"/>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="B41" t="s">
-        <v>613</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="B41" s="27"/>
       <c r="C41" s="15"/>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="B42" t="s">
-        <v>613</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="B42" s="27"/>
       <c r="C42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="B43" t="s">
-        <v>613</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="B43" s="27"/>
       <c r="C43" s="15"/>
     </row>
     <row r="44">
       <c r="A44" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="B44" t="s">
-        <v>613</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="B44" s="27"/>
       <c r="C44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="B45" t="s">
-        <v>613</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B45" s="27"/>
       <c r="C45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" t="s">
-        <v>613</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B46" s="27"/>
       <c r="C46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="B47" t="s">
-        <v>613</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B47" s="27"/>
       <c r="C47" s="15"/>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="B48" t="s">
-        <v>613</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B48" s="27"/>
       <c r="C48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="B49" t="s">
-        <v>613</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B49" s="27"/>
       <c r="C49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="B50" t="s">
-        <v>613</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B50" s="27"/>
       <c r="C50" s="15"/>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B51" s="27"/>
       <c r="C51" s="15"/>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="B52" t="s">
-        <v>613</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="B52" s="27"/>
       <c r="C52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="B53" t="s">
-        <v>613</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="B53" s="27"/>
       <c r="C53" s="15"/>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B54" t="s">
-        <v>613</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="B54" s="27"/>
       <c r="C54" s="15"/>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="B55" t="s">
-        <v>613</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="B55" s="27"/>
       <c r="C55" s="15"/>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="B56" t="s">
-        <v>613</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B56" s="27"/>
       <c r="C56" s="15"/>
     </row>
     <row r="57">
       <c r="A57" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="B57" t="s">
-        <v>613</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B57" s="27"/>
       <c r="C57" s="15"/>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="B58" t="s">
-        <v>613</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B58" s="27"/>
       <c r="C58" s="15"/>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="B59" t="s">
-        <v>613</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="B59" s="27"/>
       <c r="C59" s="15"/>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="B60" t="s">
-        <v>613</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="B60" s="27"/>
       <c r="C60" s="15"/>
     </row>
     <row r="61">
       <c r="A61" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B61" t="s">
-        <v>613</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="B61" s="27"/>
       <c r="C61" s="15"/>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="B62" t="s">
-        <v>613</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="B62" s="27"/>
       <c r="C62" s="15"/>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="B63" t="s">
-        <v>613</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B63" s="27"/>
       <c r="C63" s="15"/>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="B64" t="s">
-        <v>613</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="B64" s="27"/>
       <c r="C64" s="15"/>
     </row>
     <row r="65">
       <c r="A65" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="B65" t="s">
-        <v>613</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="B65" s="27"/>
       <c r="C65" s="15"/>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="B66" t="s">
-        <v>613</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B66" s="27"/>
       <c r="C66" s="15"/>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B67" t="s">
-        <v>613</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B67" s="27"/>
       <c r="C67" s="15"/>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="B68" t="s">
-        <v>614</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="B68" s="27"/>
       <c r="C68" s="15"/>
     </row>
     <row r="69">
       <c r="A69" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="B69" t="s">
-        <v>613</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="B69" s="27"/>
       <c r="C69" s="15"/>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B70" t="s">
-        <v>613</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="B70" s="27"/>
       <c r="C70" s="15"/>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B71" t="s">
-        <v>613</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="B71" s="27"/>
       <c r="C71" s="15"/>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B72" t="s">
-        <v>613</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="B72" s="27"/>
       <c r="C72" s="15"/>
     </row>
     <row r="73">
       <c r="A73" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B73" t="s">
-        <v>613</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="B73" s="27"/>
       <c r="C73" s="15"/>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="B74" t="s">
-        <v>613</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="B74" s="27"/>
       <c r="C74" s="15"/>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="B75" t="s">
-        <v>613</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="B75" s="27"/>
       <c r="C75" s="15"/>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B76" t="s">
-        <v>614</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B76" s="27"/>
       <c r="C76" s="15"/>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="B77" t="s">
-        <v>613</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B77" s="27"/>
       <c r="C77" s="15"/>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="B78" t="s">
-        <v>613</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="B78" s="27"/>
       <c r="C78" s="15"/>
     </row>
     <row r="79">
       <c r="A79" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B79" t="s">
-        <v>613</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B79" s="27"/>
       <c r="C79" s="15"/>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B80" s="27"/>
       <c r="C80" s="15"/>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="B81" t="s">
-        <v>613</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="B81" s="27"/>
       <c r="C81" s="15"/>
     </row>
     <row r="82">
       <c r="A82" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="B82" t="s">
-        <v>613</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B82" s="27"/>
       <c r="C82" s="15"/>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B83" t="s">
-        <v>613</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B83" s="27"/>
       <c r="C83" s="15"/>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B84" t="s">
-        <v>613</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="B84" s="27"/>
       <c r="C84" s="15"/>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="B85" t="s">
-        <v>613</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="B85" s="27"/>
       <c r="C85" s="15"/>
     </row>
     <row r="86">
       <c r="A86" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B86" t="s">
-        <v>613</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="B86" s="27"/>
       <c r="C86" s="15"/>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B87" t="s">
-        <v>613</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B87" s="27"/>
       <c r="C87" s="15"/>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="B88" t="s">
-        <v>613</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B88" s="27"/>
       <c r="C88" s="15"/>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="B89" t="s">
-        <v>613</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B89" s="27"/>
       <c r="C89" s="15"/>
     </row>
     <row r="90">
       <c r="A90" s="26" t="s">
-        <v>530</v>
-      </c>
-      <c r="B90" t="s">
-        <v>613</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B90" s="27"/>
       <c r="C90" s="15"/>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="B91" t="s">
-        <v>613</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="B91" s="27"/>
       <c r="C91" s="15"/>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="B92" t="s">
-        <v>613</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B92" s="27"/>
       <c r="C92" s="15"/>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="B93" t="s">
-        <v>613</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B93" s="27"/>
       <c r="C93" s="15"/>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="B94" t="s">
-        <v>613</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="B94" s="27"/>
       <c r="C94" s="15"/>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="B95" t="s">
-        <v>613</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B95" s="27"/>
       <c r="C95" s="15"/>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="B96" t="s">
-        <v>613</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="B96" s="27"/>
       <c r="C96" s="15"/>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
-        <v>537</v>
-      </c>
-      <c r="B97" t="s">
-        <v>613</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="B97" s="27"/>
       <c r="C97" s="15"/>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="B98" t="s">
-        <v>613</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="B98" s="27"/>
       <c r="C98" s="15"/>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="B99" t="s">
-        <v>613</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="B99" s="27"/>
       <c r="C99" s="15"/>
     </row>
     <row r="100">
       <c r="A100" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="B100" t="s">
-        <v>613</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="B100" s="27"/>
       <c r="C100" s="15"/>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="B101" t="s">
-        <v>614</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="B101" s="27"/>
       <c r="C101" s="15"/>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="B102" t="s">
-        <v>613</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="B102" s="27"/>
       <c r="C102" s="15"/>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
-        <v>543</v>
-      </c>
-      <c r="B103" t="s">
-        <v>613</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="B103" s="27"/>
       <c r="C103" s="15"/>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="B104" t="s">
-        <v>614</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="B104" s="27"/>
       <c r="C104" s="15"/>
     </row>
     <row r="105">
       <c r="A105" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="B105" t="s">
-        <v>613</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="B105" s="27"/>
       <c r="C105" s="15"/>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="B106" t="s">
-        <v>613</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="B106" s="27"/>
       <c r="C106" s="15"/>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="B107" t="s">
-        <v>613</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="B107" s="27"/>
       <c r="C107" s="15"/>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="B108" t="s">
-        <v>613</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B108" s="27"/>
       <c r="C108" s="15"/>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="B109" t="s">
-        <v>613</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="B109" s="27"/>
       <c r="C109" s="15"/>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="B110" t="s">
-        <v>613</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="B110" s="27"/>
       <c r="C110" s="15"/>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="B111" t="s">
-        <v>613</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="B111" s="27"/>
       <c r="C111" s="15"/>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="B112" t="s">
-        <v>613</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="B112" s="27"/>
       <c r="C112" s="15"/>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="B113" t="s">
-        <v>613</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="B113" s="27"/>
       <c r="C113" s="15"/>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="B114" t="s">
-        <v>613</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="B114" s="27"/>
       <c r="C114" s="15"/>
     </row>
     <row r="115">
       <c r="A115" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="B115" t="s">
-        <v>613</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="B115" s="27"/>
       <c r="C115" s="15"/>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="B116" t="s">
-        <v>613</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="B116" s="27"/>
       <c r="C116" s="15"/>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="B117" t="s">
-        <v>613</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="B117" s="27"/>
       <c r="C117" s="15"/>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="B118" t="s">
-        <v>613</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="B118" s="27"/>
       <c r="C118" s="15"/>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="B119" t="s">
-        <v>613</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B119" s="27"/>
       <c r="C119" s="15"/>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="B120" t="s">
-        <v>613</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B120" s="27"/>
       <c r="C120" s="15"/>
     </row>
     <row r="121">
       <c r="A121" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="B121" t="s">
-        <v>613</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="B121" s="27"/>
       <c r="C121" s="15"/>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="B122" t="s">
-        <v>613</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="B122" s="27"/>
       <c r="C122" s="15"/>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
-        <v>563</v>
-      </c>
-      <c r="B123" t="s">
-        <v>613</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="B123" s="27"/>
       <c r="C123" s="15"/>
     </row>
     <row r="124">
       <c r="A124" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="B124" t="s">
-        <v>613</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="B124" s="27"/>
       <c r="C124" s="15"/>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="B125" t="s">
-        <v>613</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="B125" s="27"/>
       <c r="C125" s="15"/>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B126" t="s">
-        <v>613</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="B126" s="27"/>
       <c r="C126" s="15"/>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="B127" t="s">
-        <v>613</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="B127" s="27"/>
       <c r="C127" s="15"/>
     </row>
     <row r="128">
       <c r="A128" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="B128" t="s">
-        <v>613</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="B128" s="27"/>
       <c r="C128" s="15"/>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="B129" t="s">
-        <v>613</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="B129" s="27"/>
       <c r="C129" s="15"/>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="B130" t="s">
-        <v>613</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="B130" s="27"/>
       <c r="C130" s="15"/>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="B131" t="s">
-        <v>613</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="B131" s="27"/>
       <c r="C131" s="15"/>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="B132" t="s">
-        <v>613</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="B132" s="27"/>
       <c r="C132" s="15"/>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B133" t="s">
-        <v>613</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="B133" s="27"/>
       <c r="C133" s="15"/>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="B134" t="s">
-        <v>613</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="B134" s="27"/>
       <c r="C134" s="15"/>
     </row>
     <row r="135">
       <c r="A135" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="B135" t="s">
-        <v>613</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="B135" s="27"/>
       <c r="C135" s="15"/>
     </row>
     <row r="136">
-      <c r="A136" s="31" t="s">
-        <v>570</v>
+      <c r="A136" s="30" t="s">
+        <v>566</v>
       </c>
       <c r="B136" s="27"/>
       <c r="C136" s="15"/>
     </row>
     <row r="137">
-      <c r="A137" s="31" t="s">
-        <v>573</v>
+      <c r="A137" s="30" t="s">
+        <v>569</v>
       </c>
       <c r="B137" s="27"/>
       <c r="C137" s="15"/>
     </row>
     <row r="138">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="B138" s="27"/>
+      <c r="C138" s="15"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="B139" s="27"/>
+      <c r="C139" s="15"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="27"/>
+      <c r="C140" s="15"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="B141" s="27"/>
+      <c r="C141" s="15"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B138" t="s">
-        <v>613</v>
-      </c>
-      <c r="C138" s="15"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="31" t="s">
+      <c r="B142" s="27"/>
+      <c r="C142" s="15"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="31" t="s">
         <v>577</v>
       </c>
-      <c r="B139" t="s">
-        <v>613</v>
-      </c>
-      <c r="C139" s="15"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="B140" t="s">
-        <v>613</v>
-      </c>
-      <c r="C140" s="15"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="B141" t="s">
-        <v>613</v>
-      </c>
-      <c r="C141" s="15"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="B142" t="s">
-        <v>613</v>
-      </c>
-      <c r="C142" s="15"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="B143" s="29"/>
-      <c r="C143" s="30"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="33"/>
     </row>
     <row r="144">
-      <c r="A144" s="31" t="s">
-        <v>571</v>
+      <c r="A144" s="30" t="s">
+        <v>567</v>
       </c>
       <c r="B144" s="27"/>
       <c r="C144" s="15"/>
     </row>
     <row r="145">
-      <c r="A145" s="31" t="s">
-        <v>574</v>
+      <c r="A145" s="30" t="s">
+        <v>570</v>
       </c>
       <c r="B145" s="27"/>
       <c r="C145" s="15"/>
     </row>
     <row r="146">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="B146" s="27"/>
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="B147" s="32"/>
+      <c r="C147" s="33"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="B148" s="27"/>
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="B149" s="27"/>
+      <c r="C149" s="15"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="B146" t="s">
-        <v>614</v>
-      </c>
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="31" t="s">
+      <c r="B150" s="27"/>
+      <c r="C150" s="15"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="B147" s="29"/>
-      <c r="C147" s="30"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="33" t="s">
-        <v>584</v>
-      </c>
-      <c r="B148" t="s">
-        <v>613</v>
-      </c>
-      <c r="C148" s="15"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="B149" t="s">
-        <v>613</v>
-      </c>
-      <c r="C149" s="15"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="B150" t="s">
-        <v>613</v>
-      </c>
-      <c r="C150" s="15"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="B151" t="s">
-        <v>613</v>
-      </c>
+      <c r="B151" s="27"/>
       <c r="C151" s="15"/>
     </row>
     <row r="152">
-      <c r="A152" s="31" t="s">
-        <v>572</v>
+      <c r="A152" s="30" t="s">
+        <v>568</v>
       </c>
       <c r="B152" s="27"/>
       <c r="C152" s="15"/>
     </row>
     <row r="153">
-      <c r="A153" s="31" t="s">
-        <v>575</v>
+      <c r="A153" s="30" t="s">
+        <v>571</v>
       </c>
       <c r="B153" s="27"/>
       <c r="C153" s="15"/>
     </row>
     <row r="154">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B154" s="27"/>
+      <c r="C154" s="15"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B155" s="27"/>
+      <c r="C155" s="15"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="B156" s="27"/>
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="B157" s="27"/>
+      <c r="C157" s="15"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="B154" t="s">
-        <v>613</v>
-      </c>
-      <c r="C154" s="15"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="B155" t="s">
-        <v>613</v>
-      </c>
-      <c r="C155" s="15"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="B156" t="s">
-        <v>613</v>
-      </c>
-      <c r="C156" s="15"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="B157" t="s">
-        <v>613</v>
-      </c>
-      <c r="C157" s="15"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="B158" t="s">
-        <v>613</v>
-      </c>
+      <c r="B158" s="27"/>
       <c r="C158" s="15"/>
     </row>
   </sheetData>
@@ -8629,209 +7924,204 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="49.38" collapsed="true"/>
+    <col customWidth="1" min="1" max="1" width="22.75"/>
+    <col customWidth="1" min="2" max="2" width="19.75"/>
+    <col customWidth="1" min="3" max="3" width="49.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>614</v>
-      </c>
       <c r="C1" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="B2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="B6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="B3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="B7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="B4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="37" t="s">
+      <c r="B8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="B5" t="s">
-        <v>613</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="37" t="s">
+      <c r="B9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="38" t="s">
         <v>597</v>
       </c>
-      <c r="B6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="37" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="B7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="35" t="s">
+      <c r="B11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="B8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="37" t="s">
+      <c r="B12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="B9" t="s">
-        <v>613</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="s">
+      <c r="B13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="B10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="35" t="s">
+      <c r="B14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="B11" t="s">
-        <v>613</v>
-      </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="35" t="s">
+      <c r="B15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="B12" t="s">
-        <v>613</v>
-      </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="B16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="B13" t="s">
-        <v>613</v>
-      </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="35" t="s">
+      <c r="B17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="B14" t="s">
-        <v>613</v>
-      </c>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="B18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="B15" t="s">
-        <v>613</v>
-      </c>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35" t="s">
+      <c r="B19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="B16" t="s">
-        <v>613</v>
-      </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="38" t="s">
+      <c r="B20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="36" t="s">
         <v>608</v>
       </c>
-      <c r="B17" t="s">
-        <v>613</v>
-      </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="35" t="s">
-        <v>609</v>
-      </c>
-      <c r="B18" t="s">
-        <v>613</v>
-      </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="35" t="s">
-        <v>610</v>
-      </c>
-      <c r="B19" t="s">
-        <v>613</v>
-      </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="B20" t="s">
-        <v>613</v>
-      </c>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="B21" t="s">
-        <v>613</v>
+      <c r="B21" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C21" s="15"/>
     </row>
